--- a/data/tema13/auto-new.xlsx
+++ b/data/tema13/auto-new.xlsx
@@ -47,7 +47,7 @@
     <t>kpg</t>
   </si>
   <si>
-    <t>z.mpg</t>
+    <t>z_mpg</t>
   </si>
   <si>
     <t>chevrolet vega 2300</t>
